--- a/23-24/BK Export - 23-24.xlsx
+++ b/23-24/BK Export - 23-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BK Exports\23-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72186F5E-8EAB-474C-8995-F888D6FF17B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B07B53-A67C-497C-98F4-6BE5B39FB802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="2" xr2:uid="{84EAC60A-60CB-447D-BECA-52475E25F82E}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="BK23" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$K$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$L$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$M$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="205">
   <si>
     <t>BK023</t>
   </si>
@@ -644,6 +644,12 @@
   <si>
     <t xml:space="preserve">Done </t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
 </sst>
 </file>
 
@@ -792,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1086,11 +1092,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1281,6 +1298,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,13 +1317,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,52 +1341,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1394,6 +1376,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31149,55 +31171,55 @@
       <c r="A7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="str">
+      <c r="A8" s="100" t="str">
         <f>IFERROR(INDEX(Sheet2!J:J,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>Kien Coung</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="D8" s="100" t="str">
+      <c r="B8" s="100"/>
+      <c r="D8" s="101" t="str">
         <f>IFERROR(INDEX(Sheet2!K:K,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>DG Stone</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="D11" s="101" t="s">
+      <c r="B11" s="103"/>
+      <c r="D11" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="99">
+      <c r="A12" s="100">
         <f>IFERROR(INDEX(Sheet1!C:C,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>3440075</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="D12" s="103">
+      <c r="B12" s="100"/>
+      <c r="D12" s="104">
         <f>IFERROR(INDEX(Sheet1!D:D,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>45162</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
@@ -31205,11 +31227,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
+      <c r="A15" s="99">
         <f>IFERROR(INDEX(Sheet1!I:I,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>100380025849</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="99"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
@@ -31249,8 +31271,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H25" sqref="H25:H26"/>
     </sheetView>
   </sheetViews>
@@ -31640,24 +31662,24 @@
       <c r="E12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="104">
+      <c r="F12" s="108">
         <v>10355</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="109">
         <v>45289</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="106" t="s">
+      <c r="J12" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="106" t="s">
+      <c r="K12" s="105" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="110">
+      <c r="M12" s="106">
         <f>(C12+C13)-F12</f>
         <v>58.520000000000437</v>
       </c>
@@ -31678,16 +31700,16 @@
       <c r="E13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="19"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="110"/>
+      <c r="M13" s="106"/>
       <c r="N13" s="17">
         <v>5541</v>
       </c>
@@ -31836,10 +31858,10 @@
       <c r="E17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="108">
         <v>11022</v>
       </c>
-      <c r="G17" s="105">
+      <c r="G17" s="109">
         <v>45245</v>
       </c>
       <c r="H17" s="36" t="s">
@@ -31848,16 +31870,16 @@
       <c r="I17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="106" t="s">
+      <c r="J17" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="106" t="s">
+      <c r="K17" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="110">
+      <c r="M17" s="106">
         <f>(C17+C18)-F17</f>
         <v>25.6299999999992</v>
       </c>
@@ -31878,18 +31900,18 @@
       <c r="E18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="110"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -31907,10 +31929,10 @@
       <c r="E19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="112">
         <v>9816</v>
       </c>
-      <c r="G19" s="105">
+      <c r="G19" s="109">
         <v>45245</v>
       </c>
       <c r="H19" s="36" t="s">
@@ -31919,16 +31941,16 @@
       <c r="I19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="106" t="s">
+      <c r="J19" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="106" t="s">
+      <c r="K19" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="106" t="s">
+      <c r="L19" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="111">
+      <c r="M19" s="107">
         <f>(C19+C20)-F19</f>
         <v>1327.42</v>
       </c>
@@ -31949,18 +31971,18 @@
       <c r="E20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="109"/>
-      <c r="G20" s="105"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="109"/>
       <c r="H20" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="111"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -32146,16 +32168,16 @@
       <c r="E25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="104">
+      <c r="F25" s="108">
         <v>14891</v>
       </c>
       <c r="G25" s="49">
         <v>45187</v>
       </c>
-      <c r="H25" s="107">
+      <c r="H25" s="110">
         <v>3564</v>
       </c>
-      <c r="I25" s="108">
+      <c r="I25" s="111">
         <v>45595</v>
       </c>
       <c r="J25" s="48" t="s">
@@ -32167,7 +32189,7 @@
       <c r="L25" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="110">
+      <c r="M25" s="106">
         <f>(C26+C25)-(F25+H25)</f>
         <v>-127.80999999999767</v>
       </c>
@@ -32188,12 +32210,12 @@
       <c r="E26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="104"/>
+      <c r="F26" s="108"/>
       <c r="G26" s="49">
         <v>45187</v>
       </c>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
       <c r="J26" s="48" t="s">
         <v>52</v>
       </c>
@@ -32203,7 +32225,7 @@
       <c r="L26" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="110"/>
+      <c r="M26" s="106"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -32596,12 +32618,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="J12:J13"/>
@@ -32617,6 +32633,12 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32626,11 +32648,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9A5A54-DB22-4377-BC35-63FAA0C7F582}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32646,7 +32668,7 @@
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
@@ -32680,8 +32702,11 @@
       <c r="K1" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="L1" s="138" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="str">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B2,Sheet2!A:A,0)),"")</f>
         <v>31 November 2022</v>
@@ -32714,8 +32739,11 @@
       <c r="K2" s="74" t="s">
         <v>69</v>
       </c>
+      <c r="L2" s="74" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B3,Sheet2!A:A,0)),"")</f>
         <v>44977</v>
@@ -32746,8 +32774,11 @@
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
+      <c r="L3" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B4,Sheet2!A:A,0)),"")</f>
         <v>44984</v>
@@ -32782,8 +32813,11 @@
       <c r="K4" s="74" t="s">
         <v>69</v>
       </c>
+      <c r="L4" s="74" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B5,Sheet2!A:A,0)),"")</f>
         <v>44994</v>
@@ -32816,8 +32850,11 @@
         <v>157</v>
       </c>
       <c r="K5" s="74"/>
+      <c r="L5" s="74" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B6,Sheet2!A:A,0)),"")</f>
         <v>45043</v>
@@ -32848,8 +32885,11 @@
       </c>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
+      <c r="L6" s="137" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B7,Sheet2!A:A,0)),"")</f>
         <v>45030</v>
@@ -32880,8 +32920,11 @@
       </c>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
+      <c r="L7" s="137" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B8,Sheet2!A:A,0)),"")</f>
         <v>45040</v>
@@ -32910,8 +32953,11 @@
       <c r="J8" t="s">
         <v>157</v>
       </c>
+      <c r="L8" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B9,Sheet2!A:A,0)),"")</f>
         <v>45043</v>
@@ -32940,8 +32986,11 @@
       <c r="J9" t="s">
         <v>157</v>
       </c>
+      <c r="L9" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B10,Sheet2!A:A,0)),"")</f>
         <v>45156</v>
@@ -32972,8 +33021,11 @@
       </c>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
+      <c r="L10" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B11,Sheet2!A:A,0)),"")</f>
         <v>45159</v>
@@ -33006,8 +33058,11 @@
         <v>157</v>
       </c>
       <c r="K11" s="74"/>
+      <c r="L11" s="74" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B12,Sheet2!A:A,0)),"")</f>
         <v>45159</v>
@@ -33038,8 +33093,11 @@
       </c>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
+      <c r="L12" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B13,Sheet2!A:A,0)),"")</f>
         <v>45161</v>
@@ -33070,8 +33128,11 @@
       </c>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
+      <c r="L13" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B14,Sheet2!A:A,0)),"")</f>
         <v/>
@@ -33093,7 +33154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B15,Sheet2!A:A,0)),"")</f>
         <v>45176</v>
@@ -33125,7 +33186,7 @@
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B16,Sheet2!A:A,0)),"")</f>
         <v>45177</v>
@@ -33157,7 +33218,7 @@
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B17,Sheet2!A:A,0)),"")</f>
         <v>45180</v>
@@ -33188,8 +33249,11 @@
       </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
+      <c r="L17" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B18,Sheet2!A:A,0)),"")</f>
         <v>45204</v>
@@ -33215,8 +33279,11 @@
       <c r="I18" s="50" t="s">
         <v>116</v>
       </c>
+      <c r="L18" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B19,Sheet2!A:A,0)),"")</f>
         <v>45216</v>
@@ -33242,8 +33309,11 @@
       <c r="I19" s="50" t="s">
         <v>117</v>
       </c>
+      <c r="L19" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B20,Sheet2!A:A,0)),"")</f>
         <v>45218</v>
@@ -33276,8 +33346,11 @@
         <v>157</v>
       </c>
       <c r="K20" s="74"/>
+      <c r="L20" s="74" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B21,Sheet2!A:A,0)),"")</f>
         <v>45221</v>
@@ -33308,8 +33381,11 @@
       </c>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
+      <c r="L21" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B22,Sheet2!A:A,0)),"")</f>
         <v>45221</v>
@@ -33338,8 +33414,11 @@
       <c r="I22" s="50" t="s">
         <v>120</v>
       </c>
+      <c r="L22" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B23,Sheet2!A:A,0)),"")</f>
         <v>45225</v>
@@ -33370,8 +33449,11 @@
       </c>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
+      <c r="L23" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B24,Sheet2!A:A,0)),"")</f>
         <v>45237</v>
@@ -33402,8 +33484,11 @@
       </c>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
+      <c r="L24" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B25,Sheet2!A:A,0)),"")</f>
         <v>45264</v>
@@ -33433,7 +33518,7 @@
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B26,Sheet2!A:A,0)),"")</f>
         <v>45264</v>
@@ -33463,7 +33548,7 @@
       <c r="J26" s="74"/>
       <c r="K26" s="74"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="83">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B27,Sheet2!A:A,0)),"")</f>
         <v>45286</v>
@@ -33494,8 +33579,11 @@
         <v>157</v>
       </c>
       <c r="K27" s="74"/>
+      <c r="L27" s="74" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B28,Sheet2!A:A,0)),"")</f>
         <v>44957</v>
@@ -33522,7 +33610,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B29,Sheet2!A:A,0)),"")</f>
         <v>45328</v>
@@ -33549,7 +33637,7 @@
         <v>2402092</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B30,Sheet2!A:A,0)),"")</f>
         <v>45330</v>
@@ -33575,8 +33663,11 @@
       <c r="I30" s="50" t="s">
         <v>126</v>
       </c>
+      <c r="L30" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B31,Sheet2!A:A,0)),"")</f>
         <v>45343</v>
@@ -33602,8 +33693,11 @@
       <c r="I31" t="s">
         <v>164</v>
       </c>
+      <c r="L31" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B32,Sheet2!A:A,0)),"")</f>
         <v>45362</v>
@@ -33634,7 +33728,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B33,Sheet2!A:A,0)),"")</f>
         <v>45364</v>
@@ -33660,8 +33754,11 @@
       <c r="I33" s="50" t="s">
         <v>166</v>
       </c>
+      <c r="L33" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B34,Sheet2!A:A,0)),"")</f>
         <v>45367</v>
@@ -33692,7 +33789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="44">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B35,Sheet2!A:A,0)),"")</f>
         <v>45373</v>
@@ -33718,8 +33815,11 @@
       <c r="I35" s="50" t="s">
         <v>168</v>
       </c>
+      <c r="L35" s="98">
+        <v>45637</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="92">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B36,Sheet2!A:A,0)),"")</f>
         <v>45376</v>
@@ -33750,73 +33850,73 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!#REF!,Sheet2!A:A,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B40:B71,MATCH(Sheet1!#REF!,Sheet2!A39:A71,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B41:B72,MATCH(Sheet1!#REF!,Sheet2!A40:A72,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B43:B73,MATCH(Sheet1!#REF!,Sheet2!A41:A73,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B43:B74,MATCH(Sheet1!#REF!,Sheet2!A43:A74,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B44:B75,MATCH(Sheet1!#REF!,Sheet2!A43:A75,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B45:B76,MATCH(Sheet1!#REF!,Sheet2!A44:A76,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B46:B77,MATCH(Sheet1!#REF!,Sheet2!A45:A77,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B47:B78,MATCH(Sheet1!#REF!,Sheet2!A46:A78,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B48:B79,MATCH(Sheet1!#REF!,Sheet2!A47:A79,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B49:B80,MATCH(Sheet1!#REF!,Sheet2!A48:A80,0)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B50:B81,MATCH(Sheet1!#REF!,Sheet2!A49:A81,0)),"")</f>
         <v/>
@@ -33889,7 +33989,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K59" xr:uid="{9C9B6DC8-6A68-4D23-BC19-729348F5308C}"/>
+  <autoFilter ref="A1:L59" xr:uid="{22CB78A5-372C-446D-907D-CE5D21446912}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -43516,12 +43616,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -43584,12 +43684,12 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -43623,8 +43723,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="28">
         <f>SUM(D10:D11)</f>
         <v>8926.56</v>
@@ -43632,10 +43732,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="132"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -43694,12 +43794,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
@@ -43757,10 +43857,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="74"/>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="127"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="74"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -43810,10 +43910,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="126"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="75">
         <f>SUM(D26:D28)</f>
         <v>5276.3899999999994</v>
@@ -43821,10 +43921,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="127"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="74">
         <f>D24-D29</f>
         <v>2828.630000000001</v>
@@ -43844,22 +43944,22 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="74"/>
-      <c r="B32" s="126" t="s">
+      <c r="B32" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="126"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="75">
         <f>D30-D31</f>
         <v>1828.630000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -43914,20 +44014,20 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="129"/>
       <c r="H44" t="s">
         <v>69</v>
       </c>
@@ -43963,23 +44063,23 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="119" t="s">
+      <c r="A47" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="121"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="78">
         <f>SUM(D45:D46)</f>
         <v>9351.719000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="129"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -44012,31 +44112,31 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="119" t="s">
+      <c r="A51" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="123"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
       <c r="D51" s="79">
         <f>SUM(D49:D50)</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="124" t="s">
+      <c r="B52" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="125"/>
+      <c r="C52" s="136"/>
       <c r="D52" s="80">
         <f>D51</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="113"/>
+      <c r="C53" s="126"/>
       <c r="D53" s="81">
         <f>D47-D51</f>
         <v>4199.2790000000005</v>
@@ -44049,6 +44149,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -44059,13 +44166,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/23-24/BK Export - 23-24.xlsx
+++ b/23-24/BK Export - 23-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B07B53-A67C-497C-98F4-6BE5B39FB802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0309F2F6-5081-4042-AFEC-4454A3176CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="2" xr2:uid="{84EAC60A-60CB-447D-BECA-52475E25F82E}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="BK23" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$L$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$L$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$M$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="204">
   <si>
     <t>BK023</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>BK08</t>
-  </si>
-  <si>
-    <t>BK09</t>
   </si>
   <si>
     <t xml:space="preserve"> 01-DEC-22</t>
@@ -697,13 +694,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -716,6 +706,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -757,12 +753,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -794,6 +784,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1215,8 +1211,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1226,79 +1220,67 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,10 +1290,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1347,10 +1329,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1368,7 +1350,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1377,10 +1359,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,31 +1374,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31146,12 +31130,12 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>131</v>
+      <c r="A3" s="59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="60" t="s">
         <v>102</v>
       </c>
     </row>
@@ -31159,82 +31143,82 @@
       <c r="A5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="50">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>45161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="D7" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="str">
+      <c r="A8" s="86" t="str">
         <f>IFERROR(INDEX(Sheet2!J:J,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>Kien Coung</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="D8" s="101" t="str">
+      <c r="B8" s="86"/>
+      <c r="D8" s="87" t="str">
         <f>IFERROR(INDEX(Sheet2!K:K,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>DG Stone</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="D11" s="102" t="s">
+      <c r="B11" s="89"/>
+      <c r="D11" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="100">
+      <c r="A12" s="86">
         <f>IFERROR(INDEX(Sheet1!C:C,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>3440075</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="D12" s="104">
+      <c r="B12" s="86"/>
+      <c r="D12" s="90">
         <f>IFERROR(INDEX(Sheet1!D:D,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>45162</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>133</v>
+      <c r="A14" s="52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="99">
+      <c r="A15" s="85">
         <f>IFERROR(INDEX(Sheet1!I:I,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>100380025849</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="85"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="25"/>
@@ -31279,7 +31263,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -31335,7 +31319,7 @@
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="33">
         <v>45376</v>
@@ -31350,19 +31334,19 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="68" t="s">
         <v>158</v>
       </c>
+      <c r="K2" s="57" t="s">
+        <v>157</v>
+      </c>
       <c r="L2" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="33">
         <v>45373</v>
@@ -31379,7 +31363,7 @@
       <c r="J3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="57" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="18" t="s">
@@ -31404,10 +31388,10 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="68" t="s">
         <v>158</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>157</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>77</v>
@@ -31431,10 +31415,10 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="52" t="s">
         <v>127</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>21</v>
@@ -31454,7 +31438,7 @@
       <c r="D6" s="18">
         <v>1000</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="53">
         <v>45358</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -31466,7 +31450,7 @@
       <c r="J6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="49" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="21" t="s">
@@ -31494,10 +31478,10 @@
         <v>46</v>
       </c>
       <c r="K7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="19"/>
     </row>
@@ -31516,19 +31500,19 @@
       <c r="F8" s="21">
         <v>3205</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="51">
         <v>45000</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M8" s="19"/>
     </row>
@@ -31574,7 +31558,7 @@
       <c r="A10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="61">
         <v>44957</v>
       </c>
       <c r="C10" s="34">
@@ -31612,7 +31596,7 @@
       <c r="A11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="61">
         <v>45286</v>
       </c>
       <c r="C11" s="34">
@@ -31650,7 +31634,7 @@
       <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="45">
         <v>45264</v>
       </c>
       <c r="C12" s="34">
@@ -31662,24 +31646,24 @@
       <c r="E12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="94">
         <v>10355</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="95">
         <v>45289</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="105" t="s">
+      <c r="K12" s="91" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="106">
+      <c r="M12" s="92">
         <f>(C12+C13)-F12</f>
         <v>58.520000000000437</v>
       </c>
@@ -31688,7 +31672,7 @@
       <c r="A13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="45">
         <v>45264</v>
       </c>
       <c r="C13" s="34">
@@ -31700,16 +31684,16 @@
       <c r="E13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="19"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="106"/>
+      <c r="M13" s="92"/>
       <c r="N13" s="17">
         <v>5541</v>
       </c>
@@ -31718,7 +31702,7 @@
       <c r="A14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="61">
         <v>45237</v>
       </c>
       <c r="C14" s="34">
@@ -31760,7 +31744,7 @@
       <c r="A15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="61">
         <v>45225</v>
       </c>
       <c r="C15" s="34">
@@ -31802,7 +31786,7 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="62">
         <v>45221</v>
       </c>
       <c r="C16" s="1">
@@ -31846,7 +31830,7 @@
       <c r="A17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="61">
         <v>45221</v>
       </c>
       <c r="C17" s="34">
@@ -31858,10 +31842,10 @@
       <c r="E17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="108">
+      <c r="F17" s="94">
         <v>11022</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="95">
         <v>45245</v>
       </c>
       <c r="H17" s="36" t="s">
@@ -31870,16 +31854,16 @@
       <c r="I17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="105" t="s">
+      <c r="K17" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="105" t="s">
+      <c r="L17" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="106">
+      <c r="M17" s="92">
         <f>(C17+C18)-F17</f>
         <v>25.6299999999992</v>
       </c>
@@ -31888,7 +31872,7 @@
       <c r="A18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="61">
         <v>45218</v>
       </c>
       <c r="C18" s="34">
@@ -31900,24 +31884,24 @@
       <c r="E18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="62">
         <v>45216</v>
       </c>
       <c r="C19" s="1">
@@ -31929,10 +31913,10 @@
       <c r="E19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="98">
         <v>9816</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="95">
         <v>45245</v>
       </c>
       <c r="H19" s="36" t="s">
@@ -31941,16 +31925,16 @@
       <c r="I19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="105" t="s">
+      <c r="J19" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="105" t="s">
+      <c r="K19" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="105" t="s">
+      <c r="L19" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="107">
+      <c r="M19" s="93">
         <f>(C19+C20)-F19</f>
         <v>1327.42</v>
       </c>
@@ -31959,7 +31943,7 @@
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="62">
         <v>45204</v>
       </c>
       <c r="C20" s="1">
@@ -31971,24 +31955,24 @@
       <c r="E20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="109"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="107"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="93"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="62">
         <v>45180</v>
       </c>
       <c r="C21" s="1">
@@ -32030,7 +32014,7 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="62">
         <v>45177</v>
       </c>
       <c r="C22" s="1">
@@ -32114,7 +32098,7 @@
       <c r="A24" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="61">
         <v>45161</v>
       </c>
       <c r="C24" s="38">
@@ -32156,7 +32140,7 @@
       <c r="A25" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="45">
         <v>45159</v>
       </c>
       <c r="C25" s="38">
@@ -32168,28 +32152,28 @@
       <c r="E25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="108">
+      <c r="F25" s="94">
         <v>14891</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="47">
         <v>45187</v>
       </c>
-      <c r="H25" s="110">
+      <c r="H25" s="96">
         <v>3564</v>
       </c>
-      <c r="I25" s="111">
+      <c r="I25" s="97">
         <v>45595</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="L25" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="106">
+      <c r="M25" s="92">
         <f>(C26+C25)-(F25+H25)</f>
         <v>-127.80999999999767</v>
       </c>
@@ -32198,7 +32182,7 @@
       <c r="A26" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="45">
         <v>45159</v>
       </c>
       <c r="C26" s="38">
@@ -32210,28 +32194,28 @@
       <c r="E26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="49">
+      <c r="F26" s="94"/>
+      <c r="G26" s="47">
         <v>45187</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="48" t="s">
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="106"/>
+      <c r="M26" s="92"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="62">
         <v>45156</v>
       </c>
       <c r="C27" s="1">
@@ -32366,7 +32350,7 @@
       <c r="A30" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="61">
         <v>45030</v>
       </c>
       <c r="C30" s="38">
@@ -32411,7 +32395,7 @@
       <c r="A31" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="61">
         <v>45043</v>
       </c>
       <c r="C31" s="38">
@@ -32456,7 +32440,7 @@
       <c r="A32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="61">
         <v>44994</v>
       </c>
       <c r="C32" s="38">
@@ -32498,7 +32482,7 @@
       <c r="A33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="61">
         <v>44984</v>
       </c>
       <c r="C33" s="38">
@@ -32540,7 +32524,7 @@
       <c r="A34" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="61">
         <v>44977</v>
       </c>
       <c r="C34" s="38">
@@ -32580,7 +32564,7 @@
       <c r="A35" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="61" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="38">
@@ -32648,11 +32632,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9A5A54-DB22-4377-BC35-63FAA0C7F582}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32662,1334 +32646,1380 @@
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="126"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="138" t="s">
-        <v>204</v>
+      <c r="L1" s="124" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="str">
+      <c r="A2" s="76" t="str">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B2,Sheet2!A:A,0)),"")</f>
         <v>31 November 2022</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="77">
         <v>5861001</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="77">
+        <v>6719</v>
+      </c>
+      <c r="G2" s="79">
+        <v>44917</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="74">
-        <v>6719</v>
-      </c>
-      <c r="G2" s="85">
-        <v>44917</v>
-      </c>
-      <c r="H2" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="74" t="s">
-        <v>203</v>
+      <c r="L2" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
+      <c r="A3" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B3,Sheet2!A:A,0)),"")</f>
         <v>44977</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="77">
         <v>7919940</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="78">
         <v>44977</v>
       </c>
-      <c r="E3" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="74">
+      <c r="E3" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="77">
         <v>22009</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="79">
         <v>45005</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" t="s">
-        <v>203</v>
+      <c r="I3" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="77"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="A4" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B4,Sheet2!A:A,0)),"")</f>
         <v>44984</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="77">
         <v>8128514</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="78">
         <v>44985</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="74">
+      <c r="E4" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="77">
         <v>6843</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="79">
         <v>44991</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="74" t="s">
+      <c r="I4" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="74" t="s">
-        <v>203</v>
+      <c r="L4" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
+      <c r="A5" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B5,Sheet2!A:A,0)),"")</f>
         <v>44994</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="77">
         <v>8374152</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="78">
         <v>44995</v>
       </c>
-      <c r="E5" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="74">
+      <c r="E5" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="77">
         <v>4604</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="79">
         <v>45005</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74" t="s">
-        <v>203</v>
+      <c r="I5" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+      <c r="A6" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B6,Sheet2!A:A,0)),"")</f>
         <v>45043</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="77">
         <v>9157562</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="78">
         <v>45024</v>
       </c>
-      <c r="E6" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="74">
+      <c r="E6" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="77">
         <v>9898</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="79">
         <v>45051</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="137" t="s">
-        <v>203</v>
+      <c r="I6" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+      <c r="A7" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B7,Sheet2!A:A,0)),"")</f>
         <v>45030</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="77">
         <v>9350534</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="78">
         <v>45033</v>
       </c>
-      <c r="E7" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="74">
+      <c r="E7" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="77">
         <v>5297</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="79">
         <v>45056</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="137" t="s">
-        <v>203</v>
+      <c r="I7" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B8,Sheet2!A:A,0)),"")</f>
         <v>45040</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="77">
         <v>9564580</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="78">
         <v>45042</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="77">
         <v>5696</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="79">
         <v>45056</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" t="s">
-        <v>203</v>
+      <c r="H8" s="26"/>
+      <c r="I8" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="123"/>
+      <c r="L8" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B9,Sheet2!A:A,0)),"")</f>
         <v>45043</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="77">
         <v>9620734</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="78">
         <v>45044</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="77">
         <v>5788</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="79">
         <v>45056</v>
       </c>
-      <c r="I9" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" t="s">
-        <v>203</v>
+      <c r="H9" s="26"/>
+      <c r="I9" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="123"/>
+      <c r="L9" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B10,Sheet2!A:A,0)),"")</f>
         <v>45156</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="77">
         <v>3307977</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="78">
         <v>45157</v>
       </c>
-      <c r="E10" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="88">
+      <c r="E10" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="77">
         <v>5273</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="79">
         <v>45462</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="98">
+      <c r="I10" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="77"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="A11" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B11,Sheet2!A:A,0)),"")</f>
         <v>45159</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="77">
         <v>3337713</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="78">
         <v>45159</v>
       </c>
-      <c r="E11" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="74">
+      <c r="E11" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="77">
         <v>7551</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="79">
         <v>45174</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74" t="s">
-        <v>203</v>
+      <c r="I11" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="123"/>
+      <c r="L11" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="A12" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B12,Sheet2!A:A,0)),"")</f>
         <v>45159</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="77">
         <v>3403745</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="78">
         <v>45161</v>
       </c>
-      <c r="E12" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="88">
+      <c r="E12" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="77">
         <v>7391</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="79">
         <v>45462</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="98">
+      <c r="I12" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="77"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="A13" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B13,Sheet2!A:A,0)),"")</f>
         <v>45161</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="77">
         <v>3440075</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="78">
         <v>45162</v>
       </c>
-      <c r="E13" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="74">
+      <c r="E13" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="77">
         <v>8547</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="79">
         <v>45190</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="83">
         <v>100380025849</v>
       </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" t="s">
-        <v>203</v>
+      <c r="J13" s="77"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="str">
+      <c r="A14" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B14,Sheet2!A:A,0)),"")</f>
-        <v/>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>69</v>
-      </c>
+        <v>45176</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="77">
+        <v>3799502</v>
+      </c>
+      <c r="D14" s="78">
+        <v>45177</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="77">
+        <v>9070</v>
+      </c>
+      <c r="G14" s="79">
+        <v>45233</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="84">
+        <v>100380028112</v>
+      </c>
+      <c r="J14" s="77"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B15,Sheet2!A:A,0)),"")</f>
-        <v>45176</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="74">
-        <v>3799502</v>
-      </c>
-      <c r="D15" s="84">
         <v>45177</v>
       </c>
-      <c r="E15" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="74">
-        <v>9070</v>
-      </c>
-      <c r="G15" s="85">
+      <c r="B15" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="77">
+        <v>3817667</v>
+      </c>
+      <c r="D15" s="78">
+        <v>45178</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="77">
+        <v>8904</v>
+      </c>
+      <c r="G15" s="79">
         <v>45233</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="90">
-        <v>100380028112</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
+      <c r="I15" s="84">
+        <v>10300047626</v>
+      </c>
+      <c r="J15" s="77"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="A16" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B16,Sheet2!A:A,0)),"")</f>
-        <v>45177</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="74">
-        <v>3817667</v>
-      </c>
-      <c r="D16" s="84">
-        <v>45178</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="74">
-        <v>8904</v>
-      </c>
-      <c r="G16" s="85">
-        <v>45233</v>
-      </c>
-      <c r="H16" s="74" t="s">
+        <v>45180</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="77">
+        <v>3868042</v>
+      </c>
+      <c r="D16" s="78">
+        <v>45181</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="77">
+        <v>4309</v>
+      </c>
+      <c r="G16" s="79">
+        <v>45453</v>
+      </c>
+      <c r="H16" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="90">
-        <v>10300047626</v>
-      </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
+      <c r="I16" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="77"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="125">
+        <v>45637</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B17,Sheet2!A:A,0)),"")</f>
-        <v>45180</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="74">
-        <v>3868042</v>
-      </c>
-      <c r="D17" s="84">
-        <v>45181</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="88">
-        <v>4309</v>
-      </c>
-      <c r="G17" s="97">
-        <v>45453</v>
-      </c>
-      <c r="H17" s="74" t="s">
+        <v>45204</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="77">
+        <v>4479626</v>
+      </c>
+      <c r="D17" s="78">
+        <v>45206</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="77">
+        <v>4442</v>
+      </c>
+      <c r="G17" s="79">
+        <v>45469</v>
+      </c>
+      <c r="H17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="86" t="s">
+      <c r="I17" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="98">
+      <c r="J17" s="77"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B18,Sheet2!A:A,0)),"")</f>
-        <v>45204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>4479626</v>
-      </c>
-      <c r="D18" s="45">
-        <v>45206</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="56">
-        <v>4442</v>
-      </c>
-      <c r="G18" s="97">
-        <v>45469</v>
-      </c>
-      <c r="I18" s="50" t="s">
+        <v>45216</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="77">
+        <v>4758161</v>
+      </c>
+      <c r="D18" s="78">
+        <v>45218</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="77">
+        <v>4625</v>
+      </c>
+      <c r="G18" s="79">
+        <v>45468</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="98">
+      <c r="J18" s="77"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B19,Sheet2!A:A,0)),"")</f>
-        <v>45216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>4758161</v>
-      </c>
-      <c r="D19" s="45">
         <v>45218</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="B19" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="77">
+        <v>4792598</v>
+      </c>
+      <c r="D19" s="78">
+        <v>45219</v>
+      </c>
+      <c r="E19" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="56">
-        <v>4625</v>
-      </c>
-      <c r="G19" s="57">
-        <v>45468</v>
-      </c>
-      <c r="I19" s="50" t="s">
+      <c r="F19" s="77">
+        <v>4551</v>
+      </c>
+      <c r="G19" s="79">
+        <v>45237</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="98">
-        <v>45637</v>
+      <c r="J19" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="123"/>
+      <c r="L19" s="77" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+      <c r="A20" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B20,Sheet2!A:A,0)),"")</f>
-        <v>45218</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="74">
-        <v>4792598</v>
-      </c>
-      <c r="D20" s="84">
-        <v>45219</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="74">
-        <v>4551</v>
-      </c>
-      <c r="G20" s="85">
-        <v>45237</v>
-      </c>
-      <c r="H20" s="74" t="s">
+        <v>45221</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="77">
+        <v>4848440</v>
+      </c>
+      <c r="D20" s="78">
+        <v>45222</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="77">
+        <v>4496</v>
+      </c>
+      <c r="G20" s="79">
+        <v>45441</v>
+      </c>
+      <c r="H20" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="90" t="s">
+      <c r="I20" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74" t="s">
-        <v>203</v>
+      <c r="J20" s="80"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="125">
+        <v>45637</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+      <c r="A21" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B21,Sheet2!A:A,0)),"")</f>
         <v>45221</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="74">
-        <v>4848440</v>
-      </c>
-      <c r="D21" s="84">
+      <c r="B21" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="77">
+        <v>4845527</v>
+      </c>
+      <c r="D21" s="78">
         <v>45222</v>
       </c>
-      <c r="E21" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="74">
-        <v>4496</v>
-      </c>
-      <c r="G21" s="85">
+      <c r="E21" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="77">
+        <v>4201</v>
+      </c>
+      <c r="G21" s="79">
         <v>45441</v>
       </c>
-      <c r="H21" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="90" t="s">
+      <c r="H21" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="98">
+      <c r="J21" s="26"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
+      <c r="A22" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B22,Sheet2!A:A,0)),"")</f>
-        <v>45221</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>4845527</v>
-      </c>
-      <c r="D22" s="45">
-        <v>45222</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="59">
-        <v>4201</v>
-      </c>
-      <c r="G22" s="96">
-        <v>45441</v>
-      </c>
-      <c r="H22" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" s="50" t="s">
+        <v>45225</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="77">
+        <v>4929602</v>
+      </c>
+      <c r="D22" s="78">
+        <v>45226</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="77">
+        <v>4049</v>
+      </c>
+      <c r="G22" s="79">
+        <v>45469</v>
+      </c>
+      <c r="H22" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="98">
+      <c r="J22" s="80"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
+      <c r="A23" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B23,Sheet2!A:A,0)),"")</f>
-        <v>45225</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="74">
-        <v>4929602</v>
-      </c>
-      <c r="D23" s="84">
-        <v>45226</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="88">
-        <v>4049</v>
-      </c>
-      <c r="G23" s="97">
+        <v>45237</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="77">
+        <v>5227518</v>
+      </c>
+      <c r="D23" s="78">
+        <v>45238</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="77">
+        <v>4461</v>
+      </c>
+      <c r="G23" s="79">
         <v>45469</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="86" t="s">
+      <c r="I23" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="98">
+      <c r="J23" s="80"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
+      <c r="A24" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B24,Sheet2!A:A,0)),"")</f>
-        <v>45237</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="74">
-        <v>5227518</v>
-      </c>
-      <c r="D24" s="84">
-        <v>45238</v>
-      </c>
-      <c r="E24" s="87" t="s">
+        <v>45264</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="77">
+        <v>5874109</v>
+      </c>
+      <c r="D24" s="78">
+        <v>45267</v>
+      </c>
+      <c r="E24" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="88">
-        <v>4461</v>
-      </c>
-      <c r="G24" s="97">
-        <v>45469</v>
-      </c>
-      <c r="H24" s="74" t="s">
+      <c r="F24" s="77">
+        <v>4244</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="86" t="s">
+      <c r="I24" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="98">
-        <v>45637</v>
-      </c>
+      <c r="J24" s="77"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
+      <c r="A25" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B25,Sheet2!A:A,0)),"")</f>
         <v>45264</v>
       </c>
-      <c r="B25" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="74">
-        <v>5874109</v>
-      </c>
-      <c r="D25" s="84">
-        <v>45267</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="74">
-        <v>4244</v>
-      </c>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74" t="s">
+      <c r="B25" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="77">
+        <v>5951661</v>
+      </c>
+      <c r="D25" s="78">
+        <v>45271</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="77">
+        <v>4265</v>
+      </c>
+      <c r="G25" s="81"/>
+      <c r="H25" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
+      <c r="I25" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="77"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="77"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="83">
+      <c r="A26" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B26,Sheet2!A:A,0)),"")</f>
-        <v>45264</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="74">
-        <v>5951661</v>
-      </c>
-      <c r="D26" s="84">
-        <v>45271</v>
-      </c>
-      <c r="E26" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="74">
-        <v>4265</v>
-      </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74" t="s">
+        <v>45286</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="77">
+        <v>6301293</v>
+      </c>
+      <c r="D26" s="78">
+        <v>45286</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="77">
+        <v>4502</v>
+      </c>
+      <c r="G26" s="79">
+        <v>45300</v>
+      </c>
+      <c r="H26" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
+      <c r="I26" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="123"/>
+      <c r="L26" s="77" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="83">
+      <c r="A27" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B27,Sheet2!A:A,0)),"")</f>
-        <v>45286</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="74">
-        <v>6301293</v>
-      </c>
-      <c r="D27" s="84">
-        <v>45286</v>
-      </c>
-      <c r="E27" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="74">
-        <v>4502</v>
-      </c>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74" t="s">
+        <v>44957</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="77">
+        <v>7217927</v>
+      </c>
+      <c r="D27" s="78">
+        <v>45324</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="77">
+        <v>3808</v>
+      </c>
+      <c r="G27" s="79">
+        <v>44987</v>
+      </c>
+      <c r="H27" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="86" t="s">
+      <c r="I27" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74" t="s">
-        <v>203</v>
-      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+      <c r="A28" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B28,Sheet2!A:A,0)),"")</f>
-        <v>44957</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>7217927</v>
-      </c>
-      <c r="D28" s="45">
-        <v>45324</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28">
-        <v>3808</v>
-      </c>
-      <c r="G28" s="46">
-        <v>44987</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>125</v>
-      </c>
+        <v>45328</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="77">
+        <v>7373152</v>
+      </c>
+      <c r="D28" s="78">
+        <v>45330</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="77">
+        <v>7233</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="82">
+        <v>2402092</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
+      <c r="A29" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B29,Sheet2!A:A,0)),"")</f>
-        <v>45328</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>7373152</v>
-      </c>
-      <c r="D29" s="45">
         <v>45330</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="B29" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="77">
+        <v>7393730</v>
+      </c>
+      <c r="D29" s="78">
+        <v>45331</v>
+      </c>
+      <c r="E29" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="56">
-        <v>7233</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="50">
-        <v>2402092</v>
+      <c r="F29" s="77">
+        <v>4093</v>
+      </c>
+      <c r="G29" s="79">
+        <v>45483</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="125">
+        <v>45637</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
+      <c r="A30" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B30,Sheet2!A:A,0)),"")</f>
-        <v>45330</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>7393730</v>
-      </c>
-      <c r="D30" s="45">
-        <v>45331</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="59">
-        <v>4093</v>
-      </c>
-      <c r="G30" s="96">
-        <v>45483</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="98">
+        <v>45343</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="77">
+        <v>7788001</v>
+      </c>
+      <c r="D30" s="78">
+        <v>45345</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="77">
+        <v>4239</v>
+      </c>
+      <c r="G30" s="79">
+        <v>44999</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="125">
         <v>45637</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B31,Sheet2!A:A,0)),"")</f>
-        <v>45343</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31">
-        <v>7788001</v>
-      </c>
-      <c r="D31" s="45">
-        <v>45345</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="20">
-        <v>4239</v>
-      </c>
-      <c r="G31" s="61">
-        <v>44999</v>
-      </c>
-      <c r="I31" t="s">
+        <v>45362</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="77">
+        <v>8275813</v>
+      </c>
+      <c r="D31" s="78">
+        <v>45364</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="77">
+        <v>10663</v>
+      </c>
+      <c r="G31" s="79">
+        <v>45388</v>
+      </c>
+      <c r="H31" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="L31" s="98">
-        <v>45637</v>
-      </c>
+      <c r="J31" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="77"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="92">
+      <c r="A32" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B32,Sheet2!A:A,0)),"")</f>
-        <v>45362</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="17">
-        <v>8275813</v>
-      </c>
-      <c r="D32" s="93">
         <v>45364</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="17">
-        <v>10663</v>
-      </c>
-      <c r="G32" s="94">
-        <v>45388</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17" t="s">
+      <c r="B32" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="77">
+        <v>8316663</v>
+      </c>
+      <c r="D32" s="78">
+        <v>45365</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="77">
+        <v>7352</v>
+      </c>
+      <c r="G32" s="79">
+        <v>45385</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="J32" t="s">
-        <v>157</v>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="125">
+        <v>45637</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
+      <c r="A33" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B33,Sheet2!A:A,0)),"")</f>
-        <v>45364</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33">
-        <v>8316663</v>
-      </c>
-      <c r="D33" s="45">
-        <v>45365</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33">
-        <v>7352</v>
-      </c>
-      <c r="G33" s="46">
-        <v>45385</v>
-      </c>
-      <c r="I33" s="50" t="s">
+        <v>45367</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="77">
+        <v>8408984</v>
+      </c>
+      <c r="D33" s="78">
+        <v>45369</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="77">
+        <v>4009</v>
+      </c>
+      <c r="G33" s="79">
+        <v>45386</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="L33" s="98">
-        <v>45637</v>
-      </c>
+      <c r="J33" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="77"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="92">
+      <c r="A34" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B34,Sheet2!A:A,0)),"")</f>
-        <v>45367</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="17">
-        <v>8408984</v>
-      </c>
-      <c r="D34" s="93">
-        <v>45369</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="17">
-        <v>4009</v>
-      </c>
-      <c r="G34" s="94">
-        <v>45386</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="95" t="s">
+        <v>45373</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="77">
+        <v>8574361</v>
+      </c>
+      <c r="D34" s="78">
+        <v>45374</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="77">
+        <v>5359</v>
+      </c>
+      <c r="G34" s="79">
+        <v>45398</v>
+      </c>
+      <c r="H34" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="J34" t="s">
-        <v>157</v>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="125">
+        <v>45637</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
+      <c r="A35" s="76">
         <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B35,Sheet2!A:A,0)),"")</f>
-        <v>45373</v>
-      </c>
-      <c r="B35" t="s">
+        <v>45376</v>
+      </c>
+      <c r="B35" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C35">
-        <v>8574361</v>
-      </c>
-      <c r="D35" s="45">
-        <v>45374</v>
-      </c>
-      <c r="E35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35">
-        <v>5359</v>
-      </c>
-      <c r="G35" s="46">
+      <c r="C35" s="77">
+        <v>8620872</v>
+      </c>
+      <c r="D35" s="78">
+        <v>45377</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="77">
+        <v>4188</v>
+      </c>
+      <c r="G35" s="79">
         <v>45398</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="H35" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="L35" s="98">
-        <v>45637</v>
-      </c>
+      <c r="J35" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="77"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="92">
-        <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!B36,Sheet2!A:A,0)),"")</f>
-        <v>45376</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="17">
-        <v>8620872</v>
-      </c>
-      <c r="D36" s="93">
-        <v>45377</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="17">
-        <v>4188</v>
-      </c>
-      <c r="G36" s="94">
-        <v>45398</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" t="s">
-        <v>157</v>
+      <c r="A36" s="44" t="str">
+        <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!#REF!,Sheet2!A:A,0)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B:B,MATCH(Sheet1!#REF!,Sheet2!A:A,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B40:B71,MATCH(Sheet1!#REF!,Sheet2!A39:A71,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B40:B71,MATCH(Sheet1!#REF!,Sheet2!A39:A71,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B41:B72,MATCH(Sheet1!#REF!,Sheet2!A40:A72,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B41:B72,MATCH(Sheet1!#REF!,Sheet2!A40:A72,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B43:B73,MATCH(Sheet1!#REF!,Sheet2!A41:A73,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B43:B73,MATCH(Sheet1!#REF!,Sheet2!A41:A73,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B43:B74,MATCH(Sheet1!#REF!,Sheet2!A43:A74,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B43:B74,MATCH(Sheet1!#REF!,Sheet2!A43:A74,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B44:B75,MATCH(Sheet1!#REF!,Sheet2!A43:A75,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B44:B75,MATCH(Sheet1!#REF!,Sheet2!A43:A75,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B45:B76,MATCH(Sheet1!#REF!,Sheet2!A44:A76,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B45:B76,MATCH(Sheet1!#REF!,Sheet2!A44:A76,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B46:B77,MATCH(Sheet1!#REF!,Sheet2!A45:A77,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B46:B77,MATCH(Sheet1!#REF!,Sheet2!A45:A77,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B47:B78,MATCH(Sheet1!#REF!,Sheet2!A46:A78,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B47:B78,MATCH(Sheet1!#REF!,Sheet2!A46:A78,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B48:B79,MATCH(Sheet1!#REF!,Sheet2!A47:A79,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B48:B79,MATCH(Sheet1!#REF!,Sheet2!A47:A79,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B49:B80,MATCH(Sheet1!#REF!,Sheet2!A48:A80,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B49:B80,MATCH(Sheet1!#REF!,Sheet2!A48:A80,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B50:B81,MATCH(Sheet1!#REF!,Sheet2!A49:A81,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B50:B81,MATCH(Sheet1!#REF!,Sheet2!A49:A81,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B51:B82,MATCH(Sheet1!#REF!,Sheet2!A50:A82,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B51:B82,MATCH(Sheet1!#REF!,Sheet2!A50:A82,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B52:B83,MATCH(Sheet1!#REF!,Sheet2!A51:A83,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B52:B83,MATCH(Sheet1!#REF!,Sheet2!A51:A83,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B53:B84,MATCH(Sheet1!#REF!,Sheet2!A52:A84,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B53:B84,MATCH(Sheet1!#REF!,Sheet2!A52:A84,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B54:B85,MATCH(Sheet1!#REF!,Sheet2!A53:A85,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B54:B85,MATCH(Sheet1!#REF!,Sheet2!A53:A85,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B55:B86,MATCH(Sheet1!#REF!,Sheet2!A54:A86,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B55:B86,MATCH(Sheet1!#REF!,Sheet2!A54:A86,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B56:B87,MATCH(Sheet1!#REF!,Sheet2!A55:A87,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B56:B87,MATCH(Sheet1!#REF!,Sheet2!A55:A87,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B57:B88,MATCH(Sheet1!#REF!,Sheet2!A56:A88,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B57:B88,MATCH(Sheet1!#REF!,Sheet2!A56:A88,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B58:B89,MATCH(Sheet1!#REF!,Sheet2!A57:A89,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B58:B89,MATCH(Sheet1!#REF!,Sheet2!A57:A89,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B59:B90,MATCH(Sheet1!#REF!,Sheet2!A58:A90,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B59:B90,MATCH(Sheet1!#REF!,Sheet2!A58:A90,0)),"")</f>
+        <f>IFERROR(INDEX(Sheet2!B60:B91,MATCH(Sheet1!#REF!,Sheet2!A59:A91,0)),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="str">
-        <f>IFERROR(INDEX(Sheet2!B60:B91,MATCH(Sheet1!#REF!,Sheet2!A59:A91,0)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="str">
         <f>IFERROR(INDEX(Sheet2!B61:B92,MATCH(Sheet1!#REF!,Sheet2!A60:A92,0)),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L59" xr:uid="{22CB78A5-372C-446D-907D-CE5D21446912}"/>
+  <autoFilter ref="A1:L58" xr:uid="{22CB78A5-372C-446D-907D-CE5D21446912}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -34015,18 +34045,18 @@
         <v>8620872</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1">
         <v>122142</v>
       </c>
       <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="91">
+      <c r="G1" s="72">
         <v>7538</v>
       </c>
     </row>
@@ -34035,18 +34065,18 @@
         <v>8408984</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2">
         <v>121480</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="91">
+        <v>180</v>
+      </c>
+      <c r="H2" s="72">
         <v>7216</v>
       </c>
     </row>
@@ -34055,18 +34085,18 @@
         <v>8275813</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3">
         <v>121162</v>
       </c>
       <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
         <v>185</v>
       </c>
-      <c r="G3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="91">
+      <c r="H3" s="72">
         <v>19194</v>
       </c>
     </row>
@@ -34075,18 +34105,18 @@
         <v>6301293</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4">
         <v>115537</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="91">
+        <v>180</v>
+      </c>
+      <c r="H4" s="72">
         <v>4502</v>
       </c>
     </row>
@@ -34095,18 +34125,18 @@
         <v>4792598</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>110468</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="91">
+        <v>180</v>
+      </c>
+      <c r="H5" s="72">
         <v>4551</v>
       </c>
     </row>
@@ -34115,18 +34145,18 @@
         <v>3337713</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6">
         <v>105778</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="91">
+        <v>180</v>
+      </c>
+      <c r="H6" s="72">
         <v>7551</v>
       </c>
     </row>
@@ -34135,18 +34165,18 @@
         <v>9564580</v>
       </c>
       <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" t="s">
         <v>193</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>194</v>
       </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
       <c r="G7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="91">
+        <v>180</v>
+      </c>
+      <c r="H7" s="72">
         <v>5696</v>
       </c>
     </row>
@@ -34155,18 +34185,18 @@
         <v>9620734</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
         <v>194</v>
       </c>
-      <c r="E8" t="s">
-        <v>195</v>
-      </c>
       <c r="G8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="91">
+        <v>180</v>
+      </c>
+      <c r="H8" s="72">
         <v>5788</v>
       </c>
     </row>
@@ -34175,18 +34205,18 @@
         <v>8374152</v>
       </c>
       <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
         <v>197</v>
       </c>
-      <c r="D9" t="s">
-        <v>198</v>
-      </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="91">
+        <v>180</v>
+      </c>
+      <c r="H9" s="72">
         <v>4604</v>
       </c>
     </row>
@@ -34195,18 +34225,18 @@
         <v>8128514</v>
       </c>
       <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
         <v>199</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>200</v>
       </c>
-      <c r="E10" t="s">
-        <v>201</v>
-      </c>
       <c r="G10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="91">
+        <v>180</v>
+      </c>
+      <c r="H10" s="72">
         <v>6842</v>
       </c>
     </row>
@@ -34234,43 +34264,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>144</v>
+      <c r="A2" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -34284,8 +34314,8 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>145</v>
+      <c r="A3" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -34299,8 +34329,8 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>146</v>
+      <c r="A4" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -34314,8 +34344,8 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>147</v>
+      <c r="A5" s="55" t="s">
+        <v>146</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -34329,8 +34359,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>163</v>
+      <c r="A6" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -34344,8 +34374,8 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>148</v>
+      <c r="A7" s="55" t="s">
+        <v>147</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -34359,8 +34389,8 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
-        <v>149</v>
+      <c r="A8" s="55" t="s">
+        <v>148</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -34374,8 +34404,8 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>150</v>
+      <c r="A9" s="55" t="s">
+        <v>149</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -34389,8 +34419,8 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>154</v>
+      <c r="A10" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -34404,8 +34434,8 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>155</v>
+      <c r="A11" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -34419,8 +34449,8 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>156</v>
+      <c r="A12" s="55" t="s">
+        <v>155</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -34434,8 +34464,8 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>151</v>
+      <c r="A13" s="55" t="s">
+        <v>150</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -34449,8 +34479,8 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>152</v>
+      <c r="A14" s="55" t="s">
+        <v>151</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -34464,7 +34494,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="55" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="4"/>
@@ -43616,12 +43646,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -43684,12 +43714,12 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -43723,8 +43753,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="28">
         <f>SUM(D10:D11)</f>
         <v>8926.56</v>
@@ -43732,10 +43762,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="121"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -43785,185 +43815,185 @@
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="66">
         <f>D12-D16</f>
         <v>3912.4799999999996</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="63">
         <v>191.11</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="63">
         <v>10.75</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="63">
         <f>B21*C21</f>
         <v>2054.4325000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B22" s="63">
         <v>178.79</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="63">
         <v>11.25</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="63">
         <f t="shared" ref="D22:D23" si="0">B22*C22</f>
         <v>2011.3874999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="63">
         <v>158.4</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="63">
         <v>25.5</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="63">
         <f t="shared" si="0"/>
         <v>4039.2000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63">
         <f>SUM(D21:D23)</f>
         <v>8105.02</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="63"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="63">
         <v>191.11</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="63">
         <v>8</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="63">
         <f>B26*C26</f>
         <v>1528.88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="63">
         <v>178.79</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="63">
         <v>9</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="63">
         <f t="shared" ref="D27:D28" si="1">B27*C27</f>
         <v>1609.11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="63">
         <v>158.4</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="63">
         <v>13.5</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="63">
         <f t="shared" si="1"/>
         <v>2138.4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="115" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="75">
+      <c r="C29" s="101"/>
+      <c r="D29" s="64">
         <f>SUM(D26:D28)</f>
         <v>5276.3899999999994</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="116" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="74">
+      <c r="C30" s="102"/>
+      <c r="D30" s="63">
         <f>D24-D29</f>
         <v>2828.630000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74" t="s">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="63">
         <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="115" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="75">
+      <c r="C32" s="101"/>
+      <c r="D32" s="64">
         <f>D30-D31</f>
         <v>1828.630000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" s="4">
         <v>410.76</v>
@@ -43978,7 +44008,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4">
         <v>410.76</v>
@@ -43995,7 +44025,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="4">
         <f>D37-D38</f>
@@ -44006,7 +44036,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" s="4">
         <f>D38</f>
@@ -44014,27 +44044,27 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
+      <c r="A43" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="129"/>
+      <c r="A44" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="115"/>
       <c r="H44" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" s="4">
         <v>199.25</v>
@@ -44063,27 +44093,27 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="131"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="78">
+      <c r="A47" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="67">
         <f>SUM(D45:D46)</f>
         <v>9351.719000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="129"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="115"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="4">
         <v>199.25</v>
@@ -44098,7 +44128,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="4">
         <v>251.04</v>
@@ -44112,32 +44142,32 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="79">
+      <c r="A51" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="119"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="68">
         <f>SUM(D49:D50)</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="135" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="136"/>
-      <c r="D52" s="80">
+      <c r="B52" s="121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="122"/>
+      <c r="D52" s="69">
         <f>D51</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="125" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="126"/>
-      <c r="D53" s="81">
+      <c r="B53" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="112"/>
+      <c r="D53" s="70">
         <f>D47-D51</f>
         <v>4199.2790000000005</v>
       </c>

--- a/23-24/BK Export - 23-24.xlsx
+++ b/23-24/BK Export - 23-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0309F2F6-5081-4042-AFEC-4454A3176CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1FE974-5EB3-4D0B-B077-DEFD78C16514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="2" xr2:uid="{84EAC60A-60CB-447D-BECA-52475E25F82E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="205">
   <si>
     <t>BK023</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1281,6 +1284,12 @@
     <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,19 +1308,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,10 +1326,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1359,48 +1404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31155,55 +31158,55 @@
       <c r="A7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="str">
+      <c r="A8" s="90" t="str">
         <f>IFERROR(INDEX(Sheet2!J:J,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>Kien Coung</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="D8" s="87" t="str">
+      <c r="B8" s="90"/>
+      <c r="D8" s="91" t="str">
         <f>IFERROR(INDEX(Sheet2!K:K,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>DG Stone</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="D11" s="88" t="s">
+      <c r="B11" s="93"/>
+      <c r="D11" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="86">
+      <c r="A12" s="90">
         <f>IFERROR(INDEX(Sheet1!C:C,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>3440075</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="D12" s="90">
+      <c r="B12" s="90"/>
+      <c r="D12" s="94">
         <f>IFERROR(INDEX(Sheet1!D:D,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>45162</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
@@ -31211,11 +31214,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="85">
+      <c r="A15" s="89">
         <f>IFERROR(INDEX(Sheet1!I:I,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>100380025849</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="89"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -31646,24 +31649,24 @@
       <c r="E12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="95">
         <v>10355</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="96">
         <v>45289</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="91" t="s">
+      <c r="K12" s="97" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="92">
+      <c r="M12" s="101">
         <f>(C12+C13)-F12</f>
         <v>58.520000000000437</v>
       </c>
@@ -31684,16 +31687,16 @@
       <c r="E13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="19"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="92"/>
+      <c r="M13" s="101"/>
       <c r="N13" s="17">
         <v>5541</v>
       </c>
@@ -31842,10 +31845,10 @@
       <c r="E17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="95">
         <v>11022</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="96">
         <v>45245</v>
       </c>
       <c r="H17" s="36" t="s">
@@ -31854,16 +31857,16 @@
       <c r="I17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="91" t="s">
+      <c r="J17" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="91" t="s">
+      <c r="L17" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="92">
+      <c r="M17" s="101">
         <f>(C17+C18)-F17</f>
         <v>25.6299999999992</v>
       </c>
@@ -31884,18 +31887,18 @@
       <c r="E18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -31913,10 +31916,10 @@
       <c r="E19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="100">
         <v>9816</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="96">
         <v>45245</v>
       </c>
       <c r="H19" s="36" t="s">
@@ -31925,16 +31928,16 @@
       <c r="I19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="91" t="s">
+      <c r="J19" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="91" t="s">
+      <c r="K19" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="91" t="s">
+      <c r="L19" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="93">
+      <c r="M19" s="102">
         <f>(C19+C20)-F19</f>
         <v>1327.42</v>
       </c>
@@ -31955,18 +31958,18 @@
       <c r="E20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="95"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="93"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -32152,16 +32155,16 @@
       <c r="E25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="95">
         <v>14891</v>
       </c>
       <c r="G25" s="47">
         <v>45187</v>
       </c>
-      <c r="H25" s="96">
+      <c r="H25" s="98">
         <v>3564</v>
       </c>
-      <c r="I25" s="97">
+      <c r="I25" s="99">
         <v>45595</v>
       </c>
       <c r="J25" s="46" t="s">
@@ -32173,7 +32176,7 @@
       <c r="L25" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="92">
+      <c r="M25" s="101">
         <f>(C26+C25)-(F25+H25)</f>
         <v>-127.80999999999767</v>
       </c>
@@ -32194,12 +32197,12 @@
       <c r="E26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="94"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="47">
         <v>45187</v>
       </c>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
       <c r="J26" s="46" t="s">
         <v>52</v>
       </c>
@@ -32209,7 +32212,7 @@
       <c r="L26" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="92"/>
+      <c r="M26" s="101"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -32602,6 +32605,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="J12:J13"/>
@@ -32617,12 +32626,6 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32635,8 +32638,8 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32651,7 +32654,7 @@
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="126"/>
+    <col min="12" max="12" width="9.140625" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -32688,7 +32691,7 @@
       <c r="K1" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="124" t="s">
+      <c r="L1" s="86" t="s">
         <v>203</v>
       </c>
     </row>
@@ -32722,7 +32725,7 @@
         <v>104</v>
       </c>
       <c r="J2" s="77"/>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="85" t="s">
         <v>69</v>
       </c>
       <c r="L2" s="77" t="s">
@@ -32759,7 +32762,7 @@
         <v>105</v>
       </c>
       <c r="J3" s="77"/>
-      <c r="K3" s="123"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="77" t="s">
         <v>202</v>
       </c>
@@ -32796,7 +32799,7 @@
       <c r="J4" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="85" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="77" t="s">
@@ -32835,7 +32838,7 @@
       <c r="J5" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="123"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="77" t="s">
         <v>202</v>
       </c>
@@ -32870,7 +32873,7 @@
         <v>108</v>
       </c>
       <c r="J6" s="77"/>
-      <c r="K6" s="123"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="77" t="s">
         <v>202</v>
       </c>
@@ -32905,7 +32908,7 @@
         <v>109</v>
       </c>
       <c r="J7" s="77"/>
-      <c r="K7" s="123"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="77" t="s">
         <v>202</v>
       </c>
@@ -32940,7 +32943,7 @@
       <c r="J8" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="123"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="77" t="s">
         <v>202</v>
       </c>
@@ -32975,7 +32978,7 @@
       <c r="J9" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="123"/>
+      <c r="K9" s="85"/>
       <c r="L9" s="77" t="s">
         <v>202</v>
       </c>
@@ -33010,9 +33013,9 @@
         <v>111</v>
       </c>
       <c r="J10" s="77"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="125">
-        <v>45637</v>
+      <c r="K10" s="85"/>
+      <c r="L10" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -33047,7 +33050,7 @@
       <c r="J11" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="123"/>
+      <c r="K11" s="85"/>
       <c r="L11" s="77" t="s">
         <v>202</v>
       </c>
@@ -33082,9 +33085,9 @@
         <v>113</v>
       </c>
       <c r="J12" s="77"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="125">
-        <v>45637</v>
+      <c r="K12" s="85"/>
+      <c r="L12" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -33117,7 +33120,7 @@
         <v>100380025849</v>
       </c>
       <c r="J13" s="77"/>
-      <c r="K13" s="123"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="77" t="s">
         <v>202</v>
       </c>
@@ -33152,7 +33155,7 @@
         <v>100380028112</v>
       </c>
       <c r="J14" s="77"/>
-      <c r="K14" s="123"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -33185,7 +33188,7 @@
         <v>10300047626</v>
       </c>
       <c r="J15" s="77"/>
-      <c r="K15" s="123"/>
+      <c r="K15" s="85"/>
       <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -33218,9 +33221,9 @@
         <v>114</v>
       </c>
       <c r="J16" s="77"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="125">
-        <v>45637</v>
+      <c r="K16" s="85"/>
+      <c r="L16" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -33253,9 +33256,9 @@
         <v>115</v>
       </c>
       <c r="J17" s="77"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="125">
-        <v>45637</v>
+      <c r="K17" s="85"/>
+      <c r="L17" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -33288,9 +33291,9 @@
         <v>116</v>
       </c>
       <c r="J18" s="77"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="125">
-        <v>45637</v>
+      <c r="K18" s="85"/>
+      <c r="L18" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -33325,7 +33328,7 @@
       <c r="J19" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="123"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="77" t="s">
         <v>202</v>
       </c>
@@ -33360,9 +33363,9 @@
         <v>118</v>
       </c>
       <c r="J20" s="80"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="125">
-        <v>45637</v>
+      <c r="K20" s="85"/>
+      <c r="L20" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -33395,9 +33398,9 @@
         <v>119</v>
       </c>
       <c r="J21" s="26"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="125">
-        <v>45637</v>
+      <c r="K21" s="85"/>
+      <c r="L21" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -33430,9 +33433,9 @@
         <v>120</v>
       </c>
       <c r="J22" s="80"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="125">
-        <v>45637</v>
+      <c r="K22" s="85"/>
+      <c r="L22" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -33465,9 +33468,9 @@
         <v>121</v>
       </c>
       <c r="J23" s="80"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="125">
-        <v>45637</v>
+      <c r="K23" s="85"/>
+      <c r="L23" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -33498,7 +33501,7 @@
         <v>122</v>
       </c>
       <c r="J24" s="77"/>
-      <c r="K24" s="123"/>
+      <c r="K24" s="85"/>
       <c r="L24" s="77"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -33529,7 +33532,7 @@
         <v>161</v>
       </c>
       <c r="J25" s="77"/>
-      <c r="K25" s="123"/>
+      <c r="K25" s="85"/>
       <c r="L25" s="77"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -33564,7 +33567,7 @@
       <c r="J26" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="123"/>
+      <c r="K26" s="85"/>
       <c r="L26" s="77" t="s">
         <v>202</v>
       </c>
@@ -33599,7 +33602,7 @@
         <v>124</v>
       </c>
       <c r="J27" s="26"/>
-      <c r="K27" s="123"/>
+      <c r="K27" s="85"/>
       <c r="L27" s="77"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -33632,7 +33635,7 @@
         <v>2402092</v>
       </c>
       <c r="J28" s="26"/>
-      <c r="K28" s="123"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="77"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -33666,8 +33669,8 @@
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
-      <c r="L29" s="125">
-        <v>45637</v>
+      <c r="L29" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -33701,8 +33704,8 @@
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="125">
-        <v>45637</v>
+      <c r="L30" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -33771,8 +33774,8 @@
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="125">
-        <v>45637</v>
+      <c r="L32" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -33841,8 +33844,8 @@
       </c>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
-      <c r="L34" s="125">
-        <v>45637</v>
+      <c r="L34" s="87" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -43646,12 +43649,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -43714,12 +43717,12 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="122"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -43753,8 +43756,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="28">
         <f>SUM(D10:D11)</f>
         <v>8926.56</v>
@@ -43762,10 +43765,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -43824,12 +43827,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
@@ -43887,10 +43890,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="102"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="63"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -43940,10 +43943,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="101"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="64">
         <f>SUM(D26:D28)</f>
         <v>5276.3899999999994</v>
@@ -43951,10 +43954,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="102"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="63">
         <f>D24-D29</f>
         <v>2828.630000000001</v>
@@ -43974,22 +43977,22 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="64">
         <f>D30-D31</f>
         <v>1828.630000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -44044,20 +44047,20 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="107"/>
       <c r="H44" t="s">
         <v>69</v>
       </c>
@@ -44093,23 +44096,23 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="67">
         <f>SUM(D45:D46)</f>
         <v>9351.719000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="107"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -44142,31 +44145,31 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="116" t="s">
+      <c r="A51" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="120"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="68">
         <f>SUM(D49:D50)</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="121" t="s">
+      <c r="B52" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="122"/>
+      <c r="C52" s="116"/>
       <c r="D52" s="69">
         <f>D51</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="111" t="s">
+      <c r="B53" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="112"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="70">
         <f>D47-D51</f>
         <v>4199.2790000000005</v>
@@ -44179,13 +44182,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -44196,6 +44192,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/23-24/BK Export - 23-24.xlsx
+++ b/23-24/BK Export - 23-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1FE974-5EB3-4D0B-B077-DEFD78C16514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F73AF-99DF-4987-A58C-F40A3BD1C534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="2" xr2:uid="{84EAC60A-60CB-447D-BECA-52475E25F82E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="204">
   <si>
     <t>BK023</t>
   </si>
@@ -642,13 +642,10 @@
     <t xml:space="preserve">Done </t>
   </si>
   <si>
-    <t>done</t>
+    <t>yes</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>RodTap Amount</t>
   </si>
 </sst>
 </file>
@@ -717,7 +714,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,8 +793,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1091,22 +1094,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1285,11 +1277,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,13 +1295,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,52 +1319,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,6 +1355,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31158,55 +31155,55 @@
       <c r="A7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="str">
+      <c r="A8" s="87" t="str">
         <f>IFERROR(INDEX(Sheet2!J:J,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>Kien Coung</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="D8" s="91" t="str">
+      <c r="B8" s="87"/>
+      <c r="D8" s="88" t="str">
         <f>IFERROR(INDEX(Sheet2!K:K,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>DG Stone</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="D11" s="92" t="s">
+      <c r="B11" s="90"/>
+      <c r="D11" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="87">
         <f>IFERROR(INDEX(Sheet1!C:C,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>3440075</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="D12" s="94">
+      <c r="B12" s="87"/>
+      <c r="D12" s="91">
         <f>IFERROR(INDEX(Sheet1!D:D,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>45162</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
@@ -31214,11 +31211,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+      <c r="A15" s="86">
         <f>IFERROR(INDEX(Sheet1!I:I,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>100380025849</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="86"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -31657,16 +31654,16 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="92" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="93">
         <f>(C12+C13)-F12</f>
         <v>58.520000000000437</v>
       </c>
@@ -31691,12 +31688,12 @@
       <c r="G13" s="96"/>
       <c r="H13" s="19"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="101"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="17">
         <v>5541</v>
       </c>
@@ -31857,16 +31854,16 @@
       <c r="I17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="97" t="s">
+      <c r="J17" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="97" t="s">
+      <c r="K17" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="97" t="s">
+      <c r="L17" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="101">
+      <c r="M17" s="93">
         <f>(C17+C18)-F17</f>
         <v>25.6299999999992</v>
       </c>
@@ -31895,10 +31892,10 @@
       <c r="I18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="101"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="93"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -31916,7 +31913,7 @@
       <c r="E19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="99">
         <v>9816</v>
       </c>
       <c r="G19" s="96">
@@ -31928,16 +31925,16 @@
       <c r="I19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="97" t="s">
+      <c r="K19" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="97" t="s">
+      <c r="L19" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="102">
+      <c r="M19" s="94">
         <f>(C19+C20)-F19</f>
         <v>1327.42</v>
       </c>
@@ -31958,7 +31955,7 @@
       <c r="E20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="100"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="96"/>
       <c r="H20" s="36" t="s">
         <v>69</v>
@@ -31966,10 +31963,10 @@
       <c r="I20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="102"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -32161,10 +32158,10 @@
       <c r="G25" s="47">
         <v>45187</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="97">
         <v>3564</v>
       </c>
-      <c r="I25" s="99">
+      <c r="I25" s="98">
         <v>45595</v>
       </c>
       <c r="J25" s="46" t="s">
@@ -32176,7 +32173,7 @@
       <c r="L25" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="101">
+      <c r="M25" s="93">
         <f>(C26+C25)-(F25+H25)</f>
         <v>-127.80999999999767</v>
       </c>
@@ -32201,8 +32198,8 @@
       <c r="G26" s="47">
         <v>45187</v>
       </c>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="98"/>
       <c r="J26" s="46" t="s">
         <v>52</v>
       </c>
@@ -32212,7 +32209,7 @@
       <c r="L26" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="101"/>
+      <c r="M26" s="93"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -32605,12 +32602,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="J12:J13"/>
@@ -32626,6 +32617,12 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32639,7 +32636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32653,8 +32650,8 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="88"/>
+    <col min="10" max="10" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -32685,14 +32682,14 @@
       <c r="I1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="L1" s="75" t="s">
         <v>91</v>
-      </c>
-      <c r="L1" s="86" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -32724,12 +32721,14 @@
       <c r="I2" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="85" t="s">
+      <c r="J2" s="126">
+        <v>6719</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="85" t="s">
         <v>69</v>
-      </c>
-      <c r="L2" s="77" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -32761,11 +32760,13 @@
       <c r="I3" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="J3" s="127">
+        <v>22010</v>
+      </c>
+      <c r="K3" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="76">
@@ -32796,14 +32797,14 @@
       <c r="I4" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="126">
+        <v>6842</v>
+      </c>
+      <c r="K4" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="L4" s="85" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -32835,13 +32836,13 @@
       <c r="I5" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="127">
+        <v>4604</v>
+      </c>
+      <c r="K5" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
@@ -32872,11 +32873,13 @@
       <c r="I6" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="J6" s="127">
+        <v>9098</v>
+      </c>
+      <c r="K6" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76">
@@ -32907,11 +32910,13 @@
       <c r="I7" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="J7" s="127">
+        <v>5297</v>
+      </c>
+      <c r="K7" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="76">
@@ -32940,13 +32945,13 @@
       <c r="I8" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="127">
+        <v>5696</v>
+      </c>
+      <c r="K8" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="76">
@@ -32975,13 +32980,13 @@
       <c r="I9" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="127">
+        <v>5788</v>
+      </c>
+      <c r="K9" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="76">
@@ -33012,11 +33017,13 @@
       <c r="I10" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J10" s="127">
+        <v>5274</v>
+      </c>
+      <c r="K10" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="76">
@@ -33047,13 +33054,13 @@
       <c r="I11" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="80" t="s">
+      <c r="J11" s="127">
+        <v>7551</v>
+      </c>
+      <c r="K11" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="76">
@@ -33084,11 +33091,13 @@
       <c r="I12" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J12" s="127">
+        <v>7391</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="76">
@@ -33119,11 +33128,13 @@
       <c r="I13" s="83">
         <v>100380025849</v>
       </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="J13" s="128">
+        <v>8547</v>
+      </c>
+      <c r="K13" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="76">
@@ -33154,9 +33165,11 @@
       <c r="I14" s="84">
         <v>100380028112</v>
       </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="77"/>
+      <c r="J14" s="129">
+        <v>9070</v>
+      </c>
+      <c r="K14" s="77"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="76">
@@ -33187,9 +33200,11 @@
       <c r="I15" s="84">
         <v>10300047626</v>
       </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="77"/>
+      <c r="J15" s="129">
+        <v>8904</v>
+      </c>
+      <c r="K15" s="77"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
@@ -33220,11 +33235,13 @@
       <c r="I16" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J16" s="127">
+        <v>4309</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="85"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="76">
@@ -33255,11 +33272,13 @@
       <c r="I17" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J17" s="127">
+        <v>4442</v>
+      </c>
+      <c r="K17" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="85"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="76">
@@ -33290,11 +33309,13 @@
       <c r="I18" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J18" s="127">
+        <v>4625</v>
+      </c>
+      <c r="K18" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="85"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="76">
@@ -33325,13 +33346,13 @@
       <c r="I19" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="80" t="s">
+      <c r="J19" s="129">
+        <v>4551</v>
+      </c>
+      <c r="K19" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="L19" s="85"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="76">
@@ -33362,11 +33383,13 @@
       <c r="I20" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J20" s="129">
+        <v>4495</v>
+      </c>
+      <c r="K20" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" s="85"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="76">
@@ -33397,11 +33420,13 @@
       <c r="I21" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J21" s="127">
+        <v>4201</v>
+      </c>
+      <c r="K21" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="85"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="76">
@@ -33432,11 +33457,13 @@
       <c r="I22" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J22" s="127">
+        <v>4049</v>
+      </c>
+      <c r="K22" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="76">
@@ -33467,11 +33494,13 @@
       <c r="I23" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J23" s="127">
+        <v>4461</v>
+      </c>
+      <c r="K23" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="76">
@@ -33500,9 +33529,11 @@
       <c r="I24" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="77"/>
+      <c r="J24" s="127">
+        <v>4244</v>
+      </c>
+      <c r="K24" s="77"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="76">
@@ -33531,9 +33562,11 @@
       <c r="I25" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="77"/>
+      <c r="J25" s="127">
+        <v>4265</v>
+      </c>
+      <c r="K25" s="77"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="76">
@@ -33564,13 +33597,13 @@
       <c r="I26" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="80" t="s">
+      <c r="J26" s="127">
+        <v>4502</v>
+      </c>
+      <c r="K26" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="77" t="s">
-        <v>202</v>
-      </c>
+      <c r="L26" s="85"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="76">
@@ -33601,9 +33634,11 @@
       <c r="I27" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="77"/>
+      <c r="J27" s="127">
+        <v>3808</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="85"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="76">
@@ -33634,9 +33669,11 @@
       <c r="I28" s="82">
         <v>2402092</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="77"/>
+      <c r="J28" s="127">
+        <v>7232</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="76">
@@ -33667,11 +33704,13 @@
       <c r="I29" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J29" s="127">
+        <v>4093</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="76">
@@ -33702,11 +33741,13 @@
       <c r="I30" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J30" s="126">
+        <v>4239</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="76">
@@ -33737,11 +33778,13 @@
       <c r="I31" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="127">
+        <v>19194</v>
+      </c>
+      <c r="K31" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="77"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="76">
@@ -33772,11 +33815,13 @@
       <c r="I32" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J32" s="127">
+        <v>13234</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="76">
@@ -33807,11 +33852,13 @@
       <c r="I33" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="127">
+        <v>7216</v>
+      </c>
+      <c r="K33" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="77"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="76">
@@ -33842,11 +33889,13 @@
       <c r="I34" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="87" t="s">
-        <v>204</v>
-      </c>
+      <c r="J34" s="127">
+        <v>9647</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="76">
@@ -33877,11 +33926,13 @@
       <c r="I35" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="127">
+        <v>7538</v>
+      </c>
+      <c r="K35" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="77"/>
+      <c r="L35" s="26"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="str">
@@ -43649,12 +43700,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -43717,12 +43768,12 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -43756,8 +43807,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="28">
         <f>SUM(D10:D11)</f>
         <v>8926.56</v>
@@ -43765,10 +43816,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -43827,12 +43878,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
@@ -43890,10 +43941,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="118"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="63"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -43943,10 +43994,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="117"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="64">
         <f>SUM(D26:D28)</f>
         <v>5276.3899999999994</v>
@@ -43954,10 +44005,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="118"/>
+      <c r="C30" s="103"/>
       <c r="D30" s="63">
         <f>D24-D29</f>
         <v>2828.630000000001</v>
@@ -43977,22 +44028,22 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="117"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="64">
         <f>D30-D31</f>
         <v>1828.630000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -44047,20 +44098,20 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
       <c r="H44" t="s">
         <v>69</v>
       </c>
@@ -44096,23 +44147,23 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="112"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="119"/>
       <c r="D47" s="67">
         <f>SUM(D45:D46)</f>
         <v>9351.719000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -44145,31 +44196,31 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="121"/>
       <c r="D51" s="68">
         <f>SUM(D49:D50)</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="116"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="69">
         <f>D51</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="103" t="s">
+      <c r="B53" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="104"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="70">
         <f>D47-D51</f>
         <v>4199.2790000000005</v>
@@ -44182,6 +44233,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -44192,13 +44250,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/23-24/BK Export - 23-24.xlsx
+++ b/23-24/BK Export - 23-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\23-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F73AF-99DF-4987-A58C-F40A3BD1C534}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D7CC77-7D89-4945-8DF0-D7DD26ABEAF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="2" xr2:uid="{84EAC60A-60CB-447D-BECA-52475E25F82E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="203">
   <si>
     <t>BK023</t>
   </si>
@@ -640,9 +640,6 @@
   </si>
   <si>
     <t xml:space="preserve">Done </t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>RodTap Amount</t>
@@ -1277,6 +1274,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,19 +1302,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,10 +1320,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1355,52 +1398,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31155,55 +31152,55 @@
       <c r="A7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="str">
+      <c r="A8" s="93" t="str">
         <f>IFERROR(INDEX(Sheet2!J:J,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>Kien Coung</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="D8" s="88" t="str">
+      <c r="B8" s="93"/>
+      <c r="D8" s="94" t="str">
         <f>IFERROR(INDEX(Sheet2!K:K,MATCH('Main Sheet'!A4,Sheet2!A:A,0)),"")</f>
         <v>DG Stone</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="D11" s="89" t="s">
+      <c r="B11" s="96"/>
+      <c r="D11" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="87">
+      <c r="A12" s="93">
         <f>IFERROR(INDEX(Sheet1!C:C,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>3440075</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="D12" s="91">
+      <c r="B12" s="93"/>
+      <c r="D12" s="97">
         <f>IFERROR(INDEX(Sheet1!D:D,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>45162</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
@@ -31211,11 +31208,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="86">
+      <c r="A15" s="92">
         <f>IFERROR(INDEX(Sheet1!I:I,MATCH('Main Sheet'!A4,Sheet1!B:B,0)),"")</f>
         <v>100380025849</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="92"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
@@ -31646,24 +31643,24 @@
       <c r="E12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="98">
         <v>10355</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="99">
         <v>45289</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="100" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="93">
+      <c r="M12" s="104">
         <f>(C12+C13)-F12</f>
         <v>58.520000000000437</v>
       </c>
@@ -31684,16 +31681,16 @@
       <c r="E13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="19"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="93"/>
+      <c r="M13" s="104"/>
       <c r="N13" s="17">
         <v>5541</v>
       </c>
@@ -31842,10 +31839,10 @@
       <c r="E17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="98">
         <v>11022</v>
       </c>
-      <c r="G17" s="96">
+      <c r="G17" s="99">
         <v>45245</v>
       </c>
       <c r="H17" s="36" t="s">
@@ -31854,16 +31851,16 @@
       <c r="I17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="92" t="s">
+      <c r="J17" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="92" t="s">
+      <c r="K17" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="93">
+      <c r="M17" s="104">
         <f>(C17+C18)-F17</f>
         <v>25.6299999999992</v>
       </c>
@@ -31884,18 +31881,18 @@
       <c r="E18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="104"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -31913,10 +31910,10 @@
       <c r="E19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="103">
         <v>9816</v>
       </c>
-      <c r="G19" s="96">
+      <c r="G19" s="99">
         <v>45245</v>
       </c>
       <c r="H19" s="36" t="s">
@@ -31925,16 +31922,16 @@
       <c r="I19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="92" t="s">
+      <c r="J19" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="92" t="s">
+      <c r="K19" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="92" t="s">
+      <c r="L19" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="94">
+      <c r="M19" s="105">
         <f>(C19+C20)-F19</f>
         <v>1327.42</v>
       </c>
@@ -31955,18 +31952,18 @@
       <c r="E20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="96"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="36" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="94"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -32152,16 +32149,16 @@
       <c r="E25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="95">
+      <c r="F25" s="98">
         <v>14891</v>
       </c>
       <c r="G25" s="47">
         <v>45187</v>
       </c>
-      <c r="H25" s="97">
+      <c r="H25" s="101">
         <v>3564</v>
       </c>
-      <c r="I25" s="98">
+      <c r="I25" s="102">
         <v>45595</v>
       </c>
       <c r="J25" s="46" t="s">
@@ -32173,7 +32170,7 @@
       <c r="L25" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M25" s="104">
         <f>(C26+C25)-(F25+H25)</f>
         <v>-127.80999999999767</v>
       </c>
@@ -32194,12 +32191,12 @@
       <c r="E26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="95"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="47">
         <v>45187</v>
       </c>
-      <c r="H26" s="97"/>
-      <c r="I26" s="98"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
       <c r="J26" s="46" t="s">
         <v>52</v>
       </c>
@@ -32209,7 +32206,7 @@
       <c r="L26" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="93"/>
+      <c r="M26" s="104"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -32602,6 +32599,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="J12:J13"/>
@@ -32617,12 +32620,6 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32635,8 +32632,8 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32650,7 +32647,7 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="126" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="88" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32682,8 +32679,8 @@
       <c r="I1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="125" t="s">
-        <v>203</v>
+      <c r="J1" s="87" t="s">
+        <v>202</v>
       </c>
       <c r="K1" s="73" t="s">
         <v>88</v>
@@ -32721,10 +32718,10 @@
       <c r="I2" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="126">
+      <c r="J2" s="88">
         <v>6719</v>
       </c>
-      <c r="K2" s="124" t="s">
+      <c r="K2" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L2" s="85" t="s">
@@ -32760,10 +32757,10 @@
       <c r="I3" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="127">
+      <c r="J3" s="89">
         <v>22010</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L3" s="85"/>
@@ -32797,10 +32794,10 @@
       <c r="I4" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="126">
+      <c r="J4" s="88">
         <v>6842</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L4" s="85" t="s">
@@ -32836,10 +32833,10 @@
       <c r="I5" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="127">
+      <c r="J5" s="89">
         <v>4604</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L5" s="85"/>
@@ -32873,10 +32870,10 @@
       <c r="I6" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="127">
+      <c r="J6" s="89">
         <v>9098</v>
       </c>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L6" s="85"/>
@@ -32910,10 +32907,10 @@
       <c r="I7" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="127">
+      <c r="J7" s="89">
         <v>5297</v>
       </c>
-      <c r="K7" s="124" t="s">
+      <c r="K7" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L7" s="85"/>
@@ -32945,10 +32942,10 @@
       <c r="I8" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="127">
+      <c r="J8" s="89">
         <v>5696</v>
       </c>
-      <c r="K8" s="124" t="s">
+      <c r="K8" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L8" s="85"/>
@@ -32980,10 +32977,10 @@
       <c r="I9" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="127">
+      <c r="J9" s="89">
         <v>5788</v>
       </c>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L9" s="85"/>
@@ -33017,11 +33014,11 @@
       <c r="I10" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="127">
+      <c r="J10" s="89">
         <v>5274</v>
       </c>
-      <c r="K10" s="77" t="s">
-        <v>202</v>
+      <c r="K10" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L10" s="85"/>
     </row>
@@ -33054,10 +33051,10 @@
       <c r="I11" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="127">
+      <c r="J11" s="89">
         <v>7551</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L11" s="85"/>
@@ -33091,11 +33088,11 @@
       <c r="I12" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="127">
+      <c r="J12" s="89">
         <v>7391</v>
       </c>
-      <c r="K12" s="77" t="s">
-        <v>202</v>
+      <c r="K12" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L12" s="85"/>
     </row>
@@ -33128,10 +33125,10 @@
       <c r="I13" s="83">
         <v>100380025849</v>
       </c>
-      <c r="J13" s="128">
+      <c r="J13" s="90">
         <v>8547</v>
       </c>
-      <c r="K13" s="124" t="s">
+      <c r="K13" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L13" s="85"/>
@@ -33165,7 +33162,7 @@
       <c r="I14" s="84">
         <v>100380028112</v>
       </c>
-      <c r="J14" s="129">
+      <c r="J14" s="91">
         <v>9070</v>
       </c>
       <c r="K14" s="77"/>
@@ -33200,7 +33197,7 @@
       <c r="I15" s="84">
         <v>10300047626</v>
       </c>
-      <c r="J15" s="129">
+      <c r="J15" s="91">
         <v>8904</v>
       </c>
       <c r="K15" s="77"/>
@@ -33235,11 +33232,11 @@
       <c r="I16" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="127">
+      <c r="J16" s="89">
         <v>4309</v>
       </c>
-      <c r="K16" s="77" t="s">
-        <v>202</v>
+      <c r="K16" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L16" s="85"/>
     </row>
@@ -33272,11 +33269,11 @@
       <c r="I17" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="127">
+      <c r="J17" s="89">
         <v>4442</v>
       </c>
-      <c r="K17" s="77" t="s">
-        <v>202</v>
+      <c r="K17" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L17" s="85"/>
     </row>
@@ -33309,11 +33306,11 @@
       <c r="I18" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="127">
+      <c r="J18" s="89">
         <v>4625</v>
       </c>
-      <c r="K18" s="77" t="s">
-        <v>202</v>
+      <c r="K18" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L18" s="85"/>
     </row>
@@ -33346,10 +33343,10 @@
       <c r="I19" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="129">
+      <c r="J19" s="91">
         <v>4551</v>
       </c>
-      <c r="K19" s="124" t="s">
+      <c r="K19" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L19" s="85"/>
@@ -33383,11 +33380,11 @@
       <c r="I20" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="129">
+      <c r="J20" s="91">
         <v>4495</v>
       </c>
-      <c r="K20" s="77" t="s">
-        <v>202</v>
+      <c r="K20" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L20" s="85"/>
     </row>
@@ -33420,11 +33417,11 @@
       <c r="I21" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="127">
+      <c r="J21" s="89">
         <v>4201</v>
       </c>
-      <c r="K21" s="77" t="s">
-        <v>202</v>
+      <c r="K21" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L21" s="85"/>
     </row>
@@ -33457,11 +33454,11 @@
       <c r="I22" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="127">
+      <c r="J22" s="89">
         <v>4049</v>
       </c>
-      <c r="K22" s="77" t="s">
-        <v>202</v>
+      <c r="K22" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L22" s="85"/>
     </row>
@@ -33494,11 +33491,11 @@
       <c r="I23" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="127">
+      <c r="J23" s="89">
         <v>4461</v>
       </c>
-      <c r="K23" s="77" t="s">
-        <v>202</v>
+      <c r="K23" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L23" s="85"/>
     </row>
@@ -33529,7 +33526,7 @@
       <c r="I24" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="127">
+      <c r="J24" s="89">
         <v>4244</v>
       </c>
       <c r="K24" s="77"/>
@@ -33562,7 +33559,7 @@
       <c r="I25" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="J25" s="127">
+      <c r="J25" s="89">
         <v>4265</v>
       </c>
       <c r="K25" s="77"/>
@@ -33597,10 +33594,10 @@
       <c r="I26" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="127">
+      <c r="J26" s="89">
         <v>4502</v>
       </c>
-      <c r="K26" s="80" t="s">
+      <c r="K26" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L26" s="85"/>
@@ -33634,7 +33631,7 @@
       <c r="I27" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="127">
+      <c r="J27" s="89">
         <v>3808</v>
       </c>
       <c r="K27" s="26"/>
@@ -33669,7 +33666,7 @@
       <c r="I28" s="82">
         <v>2402092</v>
       </c>
-      <c r="J28" s="127">
+      <c r="J28" s="89">
         <v>7232</v>
       </c>
       <c r="K28" s="26"/>
@@ -33704,11 +33701,11 @@
       <c r="I29" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="127">
+      <c r="J29" s="89">
         <v>4093</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>202</v>
+      <c r="K29" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L29" s="26"/>
     </row>
@@ -33741,11 +33738,11 @@
       <c r="I30" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="126">
+      <c r="J30" s="88">
         <v>4239</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>202</v>
+      <c r="K30" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L30" s="26"/>
     </row>
@@ -33778,10 +33775,10 @@
       <c r="I31" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="J31" s="127">
+      <c r="J31" s="89">
         <v>19194</v>
       </c>
-      <c r="K31" s="124" t="s">
+      <c r="K31" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L31" s="26"/>
@@ -33815,11 +33812,11 @@
       <c r="I32" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="J32" s="127">
+      <c r="J32" s="89">
         <v>13234</v>
       </c>
-      <c r="K32" s="26" t="s">
-        <v>202</v>
+      <c r="K32" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L32" s="26"/>
     </row>
@@ -33852,10 +33849,10 @@
       <c r="I33" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="127">
+      <c r="J33" s="89">
         <v>7216</v>
       </c>
-      <c r="K33" s="124" t="s">
+      <c r="K33" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L33" s="26"/>
@@ -33889,11 +33886,11 @@
       <c r="I34" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="127">
+      <c r="J34" s="89">
         <v>9647</v>
       </c>
-      <c r="K34" s="26" t="s">
-        <v>202</v>
+      <c r="K34" s="86" t="s">
+        <v>156</v>
       </c>
       <c r="L34" s="26"/>
     </row>
@@ -33926,10 +33923,10 @@
       <c r="I35" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="127">
+      <c r="J35" s="89">
         <v>7538</v>
       </c>
-      <c r="K35" s="124" t="s">
+      <c r="K35" s="86" t="s">
         <v>156</v>
       </c>
       <c r="L35" s="26"/>
@@ -43700,12 +43697,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -43768,12 +43765,12 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -43807,8 +43804,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="28">
         <f>SUM(D10:D11)</f>
         <v>8926.56</v>
@@ -43816,10 +43813,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="108"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -43878,12 +43875,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
@@ -43941,10 +43938,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="103"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="63"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -43994,10 +43991,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="102"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="64">
         <f>SUM(D26:D28)</f>
         <v>5276.3899999999994</v>
@@ -44005,10 +44002,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="103"/>
+      <c r="C30" s="121"/>
       <c r="D30" s="63">
         <f>D24-D29</f>
         <v>2828.630000000001</v>
@@ -44028,22 +44025,22 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="102"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="64">
         <f>D30-D31</f>
         <v>1828.630000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -44098,20 +44095,20 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="110"/>
       <c r="H44" t="s">
         <v>69</v>
       </c>
@@ -44147,23 +44144,23 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="119"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="67">
         <f>SUM(D45:D46)</f>
         <v>9351.719000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="116"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -44196,31 +44193,31 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="120"/>
-      <c r="C51" s="121"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="68">
         <f>SUM(D49:D50)</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="123"/>
+      <c r="C52" s="119"/>
       <c r="D52" s="69">
         <f>D51</f>
         <v>5152.4400000000005</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="113"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="70">
         <f>D47-D51</f>
         <v>4199.2790000000005</v>
@@ -44233,13 +44230,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -44250,6 +44240,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
